--- a/Wikiplantbase/Target species.xlsx
+++ b/Wikiplantbase/Target species.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giuseppe Antonelli\Desktop\tirocinio\Optmised-sampling\Wikiplantbase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586E9862-6B76-4433-8B62-21D63923BFC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C08272E-20F3-419F-BEF2-9B84112F4705}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>Ceratonia siliqua L.</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Anredera cordifolia (Ten.) Steenis</t>
   </si>
   <si>
-    <t>Colchicum autumnale L.</t>
-  </si>
-  <si>
     <t>Arbutus unedo L.</t>
   </si>
   <si>
@@ -138,9 +135,6 @@
     <t>Sorghum bicolor (L.) Moench</t>
   </si>
   <si>
-    <t>Cyclamen hederifolium Aiton</t>
-  </si>
-  <si>
     <t>Halocnemum cruciatum (Forssk.) Tod.</t>
   </si>
   <si>
@@ -267,9 +261,6 @@
     <t>Colchicum neapolitanum (Ten.) Ten.</t>
   </si>
   <si>
-    <t>Erica multiflora L.</t>
-  </si>
-  <si>
     <t>Crocus sativus L.</t>
   </si>
   <si>
@@ -294,9 +285,6 @@
     <t>Gazania rigens (L.) Gaertn.</t>
   </si>
   <si>
-    <t>Cyperus strigosus L.</t>
-  </si>
-  <si>
     <t>Amaranthus tuberculatus (Moq. ex DC.) J.D.Sauer</t>
   </si>
   <si>
@@ -307,6 +295,15 @@
   </si>
   <si>
     <t>Chenopodium opulifolium Schrad. ex W.D.J.Koch &amp; Ziz</t>
+  </si>
+  <si>
+    <t>Colchicum autumnale L. subsp. autumnale</t>
+  </si>
+  <si>
+    <t>Cyclamen hederifolium Aiton subsp. hederifolium</t>
+  </si>
+  <si>
+    <t>Erica multiflora L. subsp. multiflora</t>
   </si>
 </sst>
 </file>
@@ -384,7 +381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -394,6 +391,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -678,7 +678,7 @@
   <dimension ref="A1:A94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A94"/>
+      <selection sqref="A1:A93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -689,27 +689,27 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -719,22 +719,22 @@
     </row>
     <row r="7" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -744,72 +744,72 @@
     </row>
     <row r="12" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
-        <v>6</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="3" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -819,17 +819,17 @@
     </row>
     <row r="27" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="3" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="3" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -839,282 +839,282 @@
     </row>
     <row r="31" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="3" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="3" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="3" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="3" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="3" t="s">
-        <v>88</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="3" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="3" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="3" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="3" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="3" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="3" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="3" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="3" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="3" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="3" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="3" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="3" t="s">
-        <v>12</v>
+      <c r="A52" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="3" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="3" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="3" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="3" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="3" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="3" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="3" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="3" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="3" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="3" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="3" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="3" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="3" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="3" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="3" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="3" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="3" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="3" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="3" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="3" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="3" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="3" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="3" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="3" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="3" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="3" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1124,38 +1124,36 @@
     </row>
     <row r="88" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="3" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89" s="3" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="3" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92" s="3" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="3" t="s">
-        <v>82</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A94" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="A94" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Wikiplantbase/Target species.xlsx
+++ b/Wikiplantbase/Target species.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giuseppe Antonelli\Desktop\tirocinio\Optmised-sampling\Wikiplantbase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586E9862-6B76-4433-8B62-21D63923BFC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA02058B-0FA8-48F1-B636-3A6FE8881FBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>Ceratonia siliqua L.</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Anredera cordifolia (Ten.) Steenis</t>
   </si>
   <si>
-    <t>Colchicum autumnale L.</t>
-  </si>
-  <si>
     <t>Arbutus unedo L.</t>
   </si>
   <si>
@@ -63,21 +60,12 @@
     <t>Dysphania anthelmintica (L.) Mosyakin &amp; Clemants</t>
   </si>
   <si>
-    <t>Lipandra polysperma (L.) S. Fuentes, Uotila &amp; Borsch</t>
-  </si>
-  <si>
-    <t>Oxybasis chenopodioides (L.) S. Fuentes, Uotila et Borsch</t>
-  </si>
-  <si>
     <t>Allium anzalonei Brullo, Pavone &amp; Salmeri</t>
   </si>
   <si>
     <t>Allium savii Parl.</t>
   </si>
   <si>
-    <t>Seseli tortuosum L.</t>
-  </si>
-  <si>
     <t>Charybdis maritima (L.) Speta</t>
   </si>
   <si>
@@ -90,33 +78,18 @@
     <t>Eclipta prostrata (L.) L.</t>
   </si>
   <si>
-    <t>Guizotia abyssinica (L. f.) Cass.</t>
-  </si>
-  <si>
     <t>Helianthus pauciflorus Nutt.</t>
   </si>
   <si>
     <t>Hieracium racemosum Waldst. &amp; Kit. ex Willd.</t>
   </si>
   <si>
-    <t>Symphyotrichum lanceolatum (Willd.) G L. Nesom</t>
-  </si>
-  <si>
-    <t>Symphyotrichum pilosum (Willd.) G.L. Nesom</t>
-  </si>
-  <si>
-    <t>Symphyotrichum squamatum (Spreng.) G.L. Nesom</t>
-  </si>
-  <si>
     <t>Colchicum lusitanum Brot.</t>
   </si>
   <si>
     <t>Oenothera sinuosa W.L.Wagner &amp; Hoch</t>
   </si>
   <si>
-    <t>Odontites luteus (L.) Clairv.</t>
-  </si>
-  <si>
     <t>Callitriche brutia Petagna</t>
   </si>
   <si>
@@ -132,21 +105,12 @@
     <t>Panicum dichotomiflorum Michx.</t>
   </si>
   <si>
-    <t>Sesleria autumnalis (Scop.) F.W. Schultz</t>
-  </si>
-  <si>
     <t>Sorghum bicolor (L.) Moench</t>
   </si>
   <si>
-    <t>Cyclamen hederifolium Aiton</t>
-  </si>
-  <si>
     <t>Halocnemum cruciatum (Forssk.) Tod.</t>
   </si>
   <si>
-    <t>Oxybasis urbica (L.) S. Fuentes, Uotila et Borsch</t>
-  </si>
-  <si>
     <t>Salicornia perennans Willd. subsp. perennans</t>
   </si>
   <si>
@@ -159,9 +123,6 @@
     <t>Sigesbeckia orientalis L.</t>
   </si>
   <si>
-    <t>Symphyotrichum x salignum (Willd.) G.L. Nesom</t>
-  </si>
-  <si>
     <t>Galatella tripolium (L.) Galasso, Bartolucci &amp; Ardenghi subsp. pannonica (Jacq.) Galasso, Bartolucci &amp; Ardenghi</t>
   </si>
   <si>
@@ -171,18 +132,12 @@
     <t>Tradescantia fluminensis Vell.</t>
   </si>
   <si>
-    <t>Scirpus atrovirens Willd.</t>
-  </si>
-  <si>
     <t>Egeria densa Planch.</t>
   </si>
   <si>
     <t>Hibiscus trionum L.</t>
   </si>
   <si>
-    <t>Heteranthera reniformis Ruiz et Pav.</t>
-  </si>
-  <si>
     <t>Solanum chenopodioides Lam.</t>
   </si>
   <si>
@@ -192,9 +147,6 @@
     <t>Hedera algeriensis Hibberd</t>
   </si>
   <si>
-    <t>Hedera hibernica (G. Kirchn.) Bean</t>
-  </si>
-  <si>
     <t>Syagrus romanzoffiana (Cham.) Glassman</t>
   </si>
   <si>
@@ -231,18 +183,12 @@
     <t>Sporobolus cryptandrus (Torr.) A.Gray</t>
   </si>
   <si>
-    <t>Reynoutria bohemica Chrtek &amp; Chrtkova</t>
-  </si>
-  <si>
     <t>Euphorbia dendroides L.</t>
   </si>
   <si>
     <t>Ranunculus bullatus L.</t>
   </si>
   <si>
-    <t>Eriobotrya japonica (Thunb.) Lindl.</t>
-  </si>
-  <si>
     <t>Alternanthera tenella Colla</t>
   </si>
   <si>
@@ -255,21 +201,12 @@
     <t>Artemisia verlotiorum Lamotte</t>
   </si>
   <si>
-    <t>Symphyotrichum novae-angliae (L.) G.L. Nesom</t>
-  </si>
-  <si>
-    <t>Symphyotrichum novi-belgii (L.) G.L. Nesom</t>
-  </si>
-  <si>
     <t>Tagetes minuta L.</t>
   </si>
   <si>
     <t>Colchicum neapolitanum (Ten.) Ten.</t>
   </si>
   <si>
-    <t>Erica multiflora L.</t>
-  </si>
-  <si>
     <t>Crocus sativus L.</t>
   </si>
   <si>
@@ -282,21 +219,12 @@
     <t>Smilax aspera L.</t>
   </si>
   <si>
-    <t>Oxybasis rubra (L.) S. Fuentes, Uotila et Borsch</t>
-  </si>
-  <si>
     <t>Sternbergia colchiciflora Waldst. &amp; Kit.</t>
   </si>
   <si>
-    <t>Hedera helix L.</t>
-  </si>
-  <si>
     <t>Gazania rigens (L.) Gaertn.</t>
   </si>
   <si>
-    <t>Cyperus strigosus L.</t>
-  </si>
-  <si>
     <t>Amaranthus tuberculatus (Moq. ex DC.) J.D.Sauer</t>
   </si>
   <si>
@@ -307,6 +235,75 @@
   </si>
   <si>
     <t>Chenopodium opulifolium Schrad. ex W.D.J.Koch &amp; Ziz</t>
+  </si>
+  <si>
+    <t>Colchicum autumnale L. subsp. autumnale</t>
+  </si>
+  <si>
+    <t>Cyclamen hederifolium Aiton subsp. hederifolium</t>
+  </si>
+  <si>
+    <t>Erica multiflora L. subsp. multiflora</t>
+  </si>
+  <si>
+    <t>Rhaphiolepis bibas (Lour.) Galasso &amp; Banfi</t>
+  </si>
+  <si>
+    <t>Guizotia abyssinica (L.f.) Cass.</t>
+  </si>
+  <si>
+    <t>Hedera helix L. subsp. helix</t>
+  </si>
+  <si>
+    <t>Hedera hibernica (G.Kirchn.) Bean</t>
+  </si>
+  <si>
+    <t>Heteranthera reniformis Ruiz &amp; Pav.</t>
+  </si>
+  <si>
+    <t>Lipandra polysperma (L.) S.Fuentes, Uotila &amp; Borsch</t>
+  </si>
+  <si>
+    <t>Odontites luteus (L.) Clairv. subsp. luteus</t>
+  </si>
+  <si>
+    <t>Oxybasis chenopodioides (L.) S.Fuentes, Uotila &amp; Borsch</t>
+  </si>
+  <si>
+    <t>Oxybasis rubra (L.) S.Fuentes, Uotila &amp; Borsch</t>
+  </si>
+  <si>
+    <t>Oxybasis urbica (L.) S.Fuentes, Uotila &amp; Borsch</t>
+  </si>
+  <si>
+    <t>Reynoutria bohemica Chrtek &amp; Chrtková</t>
+  </si>
+  <si>
+    <t>Scirpus atrovirens Willd. subsp. atrovirens</t>
+  </si>
+  <si>
+    <t>Seseli tortuosum L. subsp. tortuosum</t>
+  </si>
+  <si>
+    <t>Sesleria autumnalis (Scop.) F.W.Schultz</t>
+  </si>
+  <si>
+    <t>Symphyotrichum lanceolatum (Willd.) G.L.Nesom</t>
+  </si>
+  <si>
+    <t>Symphyotrichum novae-angliae (L.) G.L.Nesom</t>
+  </si>
+  <si>
+    <t>Symphyotrichum novi-belgii (L.) G.L.Nesom</t>
+  </si>
+  <si>
+    <t>Symphyotrichum pilosum (Willd.) G.L.Nesom</t>
+  </si>
+  <si>
+    <t>Symphyotrichum squamatum (Spreng.) G.L.Nesom</t>
+  </si>
+  <si>
+    <t>Symphyotrichum ×salignum (Willd.) G.L.Nesom</t>
   </si>
 </sst>
 </file>
@@ -384,7 +381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -394,6 +391,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -677,9 +677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A94"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -689,27 +687,27 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -719,22 +717,22 @@
     </row>
     <row r="7" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -744,92 +742,92 @@
     </row>
     <row r="12" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="3" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="3" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="3" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="3" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -839,323 +837,321 @@
     </row>
     <row r="31" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="3" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="3" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="3" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="3" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="3" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="3" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="3" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="3" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="3" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="3" t="s">
-        <v>3</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="3" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="3" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="3" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="3" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="3" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="3" t="s">
-        <v>12</v>
+      <c r="A52" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="3" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="3" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="3" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="3" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="3" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="3" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="3" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="3" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="3" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="3" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="3" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="3" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="3" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="3" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="3" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="3" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="3" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="3" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="3" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="3" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="3" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="3" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="3" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="3" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="3" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="3" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="3" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="3" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" s="3" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="3" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89" s="3" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="3" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="3" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92" s="3" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="3" t="s">
-        <v>82</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A94" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="A94" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Wikiplantbase/Target species.xlsx
+++ b/Wikiplantbase/Target species.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giuseppe Antonelli\Desktop\tirocinio\Optmised-sampling\Wikiplantbase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF89DB87-5683-4B4A-BB03-79D36A7F280A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E4F349-0AA2-432A-A3E9-33311E04FC0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -728,7 +728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A110"/>
     </sheetView>
   </sheetViews>

--- a/Wikiplantbase/Target species.xlsx
+++ b/Wikiplantbase/Target species.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giuseppe Antonelli\Desktop\tirocinio\Optmised-sampling\Wikiplantbase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E4F349-0AA2-432A-A3E9-33311E04FC0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17933371-3843-4FC0-864E-2024547AF825}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -728,9 +728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A110"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>

--- a/Wikiplantbase/Target species.xlsx
+++ b/Wikiplantbase/Target species.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giuseppe Antonelli\Desktop\tirocinio\Optmised-sampling\Wikiplantbase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17933371-3843-4FC0-864E-2024547AF825}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4658A1F1-A488-457E-8022-6762641EBD52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Wikiplantbase/Target species.xlsx
+++ b/Wikiplantbase/Target species.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giuseppe Antonelli\Desktop\tirocinio\Optmised-sampling\Wikiplantbase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4658A1F1-A488-457E-8022-6762641EBD52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BCD274B-9857-42BD-AAE8-32A53518A8A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Wikiplantbase/Target species.xlsx
+++ b/Wikiplantbase/Target species.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giuseppe Antonelli\Desktop\tirocinio\Optmised-sampling\Wikiplantbase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BCD274B-9857-42BD-AAE8-32A53518A8A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35DE41C-5FA1-43E0-98CD-E9828935B1E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,9 +57,6 @@
     <t>Dysphania ambrosioides (L.) Mosyakin &amp; Clemants</t>
   </si>
   <si>
-    <t>Dysphania anthelmintica (L.) Mosyakin &amp; Clemants</t>
-  </si>
-  <si>
     <t>Allium anzalonei Brullo, Pavone &amp; Salmeri</t>
   </si>
   <si>
@@ -159,27 +156,12 @@
     <t>Crassula tetragona L.</t>
   </si>
   <si>
-    <t>Siphonostylis unguicularis (Poir.) Wern.Schulze</t>
-  </si>
-  <si>
     <t>Ludwigia peploides (Kunth) P.H.Raven subsp. montevidensis (Spreng.) P.H.Raven</t>
   </si>
   <si>
-    <t>Oenothera depressa Greene</t>
-  </si>
-  <si>
-    <t>Oenothera italica Rostański &amp; Soldano</t>
-  </si>
-  <si>
     <t>Oenothera marinellae Soldano</t>
   </si>
   <si>
-    <t>Oenothera pellegrinii Soldano</t>
-  </si>
-  <si>
-    <t>Setaria faberi R.A.W.Herrm.</t>
-  </si>
-  <si>
     <t>Sporobolus cryptandrus (Torr.) A.Gray</t>
   </si>
   <si>
@@ -192,9 +174,6 @@
     <t>Alternanthera tenella Colla</t>
   </si>
   <si>
-    <t>Narcissus obsoletus (Haw.) Steud.</t>
-  </si>
-  <si>
     <t>Sternbergia lutea (L.) Ker Gawl. ex Spreng.</t>
   </si>
   <si>
@@ -255,9 +234,6 @@
     <t>Hedera helix L. subsp. helix</t>
   </si>
   <si>
-    <t>Hedera hibernica (G.Kirchn.) Bean</t>
-  </si>
-  <si>
     <t>Heteranthera reniformis Ruiz &amp; Pav.</t>
   </si>
   <si>
@@ -276,12 +252,6 @@
     <t>Oxybasis urbica (L.) S.Fuentes, Uotila &amp; Borsch</t>
   </si>
   <si>
-    <t>Reynoutria bohemica Chrtek &amp; Chrtková</t>
-  </si>
-  <si>
-    <t>Scirpus atrovirens Willd. subsp. atrovirens</t>
-  </si>
-  <si>
     <t>Seseli tortuosum L. subsp. tortuosum</t>
   </si>
   <si>
@@ -312,9 +282,6 @@
     <t>Oenothera chicaginensis de Vries ex Renner &amp; Cleland</t>
   </si>
   <si>
-    <t>Oenothera fallacoides Soldano &amp; Rostański</t>
-  </si>
-  <si>
     <t>Oenothera glazioviana Micheli</t>
   </si>
   <si>
@@ -333,18 +300,12 @@
     <t>Oenothera lindheimeri (Engelm. &amp; A.Gray) W.L.Wagner &amp; Hoch</t>
   </si>
   <si>
-    <t>Oenothera oehlkersii Kappus ex Rostański</t>
-  </si>
-  <si>
     <t>Oenothera parviflora L.</t>
   </si>
   <si>
     <t>Oenothera pycnocarpa G.F.Atk. &amp; Bartlett</t>
   </si>
   <si>
-    <t>Oenothera rosea L'Hér. ex Aiton</t>
-  </si>
-  <si>
     <t>Oenothera speciosa Nutt.</t>
   </si>
   <si>
@@ -355,6 +316,45 @@
   </si>
   <si>
     <t>Oenothera suaveolens Desf. ex Pers.</t>
+  </si>
+  <si>
+    <t>Hedera hibernica (Kirchn.) Bean.</t>
+  </si>
+  <si>
+    <t>Oenothera depressa Green</t>
+  </si>
+  <si>
+    <t>Oenothera fallacoides Soldano &amp; Rostanski</t>
+  </si>
+  <si>
+    <t>Oenothera italica Rostanski &amp; Soldano</t>
+  </si>
+  <si>
+    <t>Oenothera oehlkersii Kappus ex Rostanski</t>
+  </si>
+  <si>
+    <t>Oenothera pellegrini Soldano</t>
+  </si>
+  <si>
+    <t>Oenothera rosea L'Hér.</t>
+  </si>
+  <si>
+    <t>Reynoutria ×bohemica Chrtek &amp; Chrtková</t>
+  </si>
+  <si>
+    <t>Scirpus atrovirens Willd.</t>
+  </si>
+  <si>
+    <t>Setaria faberi F.Herrm.</t>
+  </si>
+  <si>
+    <t>Chenopodium ambrosioides L. var. anthelminticum (L.) A.Gray</t>
+  </si>
+  <si>
+    <t>Hermione elegans Haw.</t>
+  </si>
+  <si>
+    <t>Iris unguicularis Poir.</t>
   </si>
 </sst>
 </file>
@@ -728,7 +728,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A110"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -738,12 +740,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -753,12 +755,12 @@
     </row>
     <row r="4" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -773,12 +775,12 @@
     </row>
     <row r="8" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -793,77 +795,77 @@
     </row>
     <row r="12" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -873,7 +875,7 @@
     </row>
     <row r="28" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -883,72 +885,72 @@
     </row>
     <row r="30" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="3" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="3" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="3" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="3" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -958,17 +960,17 @@
     </row>
     <row r="45" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="3" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -978,307 +980,307 @@
     </row>
     <row r="49" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="3" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="3" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="3" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="3" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="3" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="3" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="3" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="3" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="3" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="3" t="s">
-        <v>47</v>
+        <v>100</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="3" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="3" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="4" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="3" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="3" t="s">
-        <v>49</v>
+        <v>102</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="3" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="3" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="3" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="3" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="3" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="3" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="3" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="3" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="3" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" s="3" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="3" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89" s="3" t="s">
-        <v>50</v>
+        <v>106</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="3" t="s">
-        <v>44</v>
+        <v>109</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A94" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A95" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A97" s="3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A100" s="3" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A101" s="3" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A102" s="3" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A103" s="3" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A104" s="3" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A105" s="3" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A106" s="3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A107" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A108" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A109" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">

--- a/Wikiplantbase/Target species.xlsx
+++ b/Wikiplantbase/Target species.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giuseppe Antonelli\Desktop\tirocinio\Optmised-sampling\Wikiplantbase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35DE41C-5FA1-43E0-98CD-E9828935B1E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7C5118-0B9C-436E-9842-E0C7A0E30202}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Ceratonia siliqua L.</t>
   </si>
@@ -144,9 +144,6 @@
     <t>Hedera algeriensis Hibberd</t>
   </si>
   <si>
-    <t>Syagrus romanzoffiana (Cham.) Glassman</t>
-  </si>
-  <si>
     <t>Colchicum longifolium Castagne</t>
   </si>
   <si>
@@ -186,9 +183,6 @@
     <t>Colchicum neapolitanum (Ten.) Ten.</t>
   </si>
   <si>
-    <t>Crocus sativus L.</t>
-  </si>
-  <si>
     <t>Triglochin laxiflora Guss.</t>
   </si>
   <si>
@@ -303,9 +297,6 @@
     <t>Oenothera parviflora L.</t>
   </si>
   <si>
-    <t>Oenothera pycnocarpa G.F.Atk. &amp; Bartlett</t>
-  </si>
-  <si>
     <t>Oenothera speciosa Nutt.</t>
   </si>
   <si>
@@ -355,6 +346,9 @@
   </si>
   <si>
     <t>Iris unguicularis Poir.</t>
+  </si>
+  <si>
+    <t>Taraxacum minimum (V. Brig.) N. Terracc.</t>
   </si>
 </sst>
 </file>
@@ -729,7 +723,7 @@
   <dimension ref="A1:A110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A110"/>
+      <selection activeCell="A111" sqref="A111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -755,12 +749,12 @@
     </row>
     <row r="4" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -775,7 +769,7 @@
     </row>
     <row r="8" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -795,7 +789,7 @@
     </row>
     <row r="12" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -805,22 +799,22 @@
     </row>
     <row r="14" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -830,287 +824,287 @@
     </row>
     <row r="19" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="3" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="3" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="3" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="3" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="3" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="3" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="3" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="3" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="3" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="3" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="3" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="3" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="3" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="3" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="3" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="3" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="3" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="3" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="3" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="3" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="3" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="3" t="s">
-        <v>70</v>
+      <c r="A50" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="4" t="s">
-        <v>43</v>
+      <c r="A51" s="3" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="3" t="s">
-        <v>108</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="3" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="3" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="3" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="3" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="3" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
     <row r="64" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="4" t="s">
-        <v>90</v>
+      <c r="A64" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="3" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="3" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="3" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="3" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="3" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="3" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="3" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="3" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1120,62 +1114,62 @@
     </row>
     <row r="77" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="3" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="3" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="3" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="3" t="s">
-        <v>29</v>
+        <v>101</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="3" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="3" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="3" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="3" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="3" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" s="3" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="3" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1185,27 +1179,27 @@
     </row>
     <row r="90" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="3" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="3" t="s">
-        <v>109</v>
+        <v>36</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92" s="3" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="3" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A94" s="3" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1215,78 +1209,74 @@
     </row>
     <row r="96" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A97" s="3" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="3" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="3" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A100" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A101" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A102" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A103" s="3" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A104" s="3" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A105" s="3" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A106" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A107" s="3" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A108" s="3" t="s">
-        <v>33</v>
+        <v>107</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A109" s="3" t="s">
-        <v>54</v>
-      </c>
+      <c r="A109" s="3"/>
     </row>
     <row r="110" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A110" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="A110" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Wikiplantbase/Target species.xlsx
+++ b/Wikiplantbase/Target species.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giuseppe Antonelli\Desktop\tirocinio\Optmised-sampling\Wikiplantbase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MARCO\Documents\Tesi laureandi\Giuseppe Antonelli\OPTIMISED SAMPLING NEW\Wikiplantbase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35DE41C-5FA1-43E0-98CD-E9828935B1E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C46C91-3827-4C0F-9DB8-9517C447E51E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="110">
   <si>
     <t>Ceratonia siliqua L.</t>
   </si>
@@ -75,9 +75,6 @@
     <t>Eclipta prostrata (L.) L.</t>
   </si>
   <si>
-    <t>Helianthus pauciflorus Nutt.</t>
-  </si>
-  <si>
     <t>Hieracium racemosum Waldst. &amp; Kit. ex Willd.</t>
   </si>
   <si>
@@ -144,9 +141,6 @@
     <t>Hedera algeriensis Hibberd</t>
   </si>
   <si>
-    <t>Syagrus romanzoffiana (Cham.) Glassman</t>
-  </si>
-  <si>
     <t>Colchicum longifolium Castagne</t>
   </si>
   <si>
@@ -186,9 +180,6 @@
     <t>Colchicum neapolitanum (Ten.) Ten.</t>
   </si>
   <si>
-    <t>Crocus sativus L.</t>
-  </si>
-  <si>
     <t>Triglochin laxiflora Guss.</t>
   </si>
   <si>
@@ -303,9 +294,6 @@
     <t>Oenothera parviflora L.</t>
   </si>
   <si>
-    <t>Oenothera pycnocarpa G.F.Atk. &amp; Bartlett</t>
-  </si>
-  <si>
     <t>Oenothera speciosa Nutt.</t>
   </si>
   <si>
@@ -355,13 +343,25 @@
   </si>
   <si>
     <t>Iris unguicularis Poir.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helianthus pauciflorus Nutt. </t>
+  </si>
+  <si>
+    <t>Taraxacum minimum (V. Brig.) N. Terracc.</t>
+  </si>
+  <si>
+    <t>lista_aggancio_nomiwiki</t>
+  </si>
+  <si>
+    <t>lista_nomickl</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -380,6 +380,14 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -432,7 +440,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -446,6 +454,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -726,566 +735,888 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A110"/>
+  <dimension ref="A1:B109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A110"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="91.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="74.109375" customWidth="1"/>
+    <col min="2" max="2" width="50.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="3" t="s">
+      <c r="B9" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="3" t="s">
+      <c r="B16" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="3" t="s">
+      <c r="B20" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="54" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>103</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>33</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="80.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B41" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>93</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>106</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>66</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>16</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="54" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="54" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B78" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>27</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B80" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A82" s="3" t="s">
+      <c r="B89" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A84" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A85" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A86" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A87" s="3" t="s">
+      <c r="B97" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A88" s="3" t="s">
+      <c r="B100" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A91" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A92" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A93" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A94" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A95" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A97" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A98" s="3" t="s">
+      <c r="B101" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A99" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A100" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A101" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A102" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A103" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A104" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B104" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>31</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A107" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B107" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A110" s="3" t="s">
-        <v>1</v>
+        <v>107</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/Wikiplantbase/Target species.xlsx
+++ b/Wikiplantbase/Target species.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MARCO\Documents\Tesi laureandi\Giuseppe Antonelli\OPTIMISED SAMPLING NEW\Wikiplantbase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giuseppe Antonelli\Desktop\tirocinio\Optmised-sampling\Wikiplantbase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C46C91-3827-4C0F-9DB8-9517C447E51E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{733BF5EB-8326-4595-84AC-B0BED0CB1022}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="121">
   <si>
     <t>Ceratonia siliqua L.</t>
   </si>
@@ -355,13 +355,46 @@
   </si>
   <si>
     <t>lista_nomickl</t>
+  </si>
+  <si>
+    <t>Halocnemum cruciatum (Forrsk.) Tod.</t>
+  </si>
+  <si>
+    <t>Helianthus pauciflorus Nutt.</t>
+  </si>
+  <si>
+    <t>Oenothera oehlkersi Kappus ex Rostanski</t>
+  </si>
+  <si>
+    <t>Oenothera stricta Link subsp. stricta</t>
+  </si>
+  <si>
+    <t>Setaria faberi F.Herm.</t>
+  </si>
+  <si>
+    <t>Reynoutria Ã—bohemica Chrtek &amp; ChrtkovÃ¡</t>
+  </si>
+  <si>
+    <t>Symphyotrichum Ã—salignum (Willd.) G.L.Nesom</t>
+  </si>
+  <si>
+    <t>Colchicum neapolitanum (Ten.) Ten. subsp. neapolitanum</t>
+  </si>
+  <si>
+    <t>Oenothera grandiflora L'HÃ©r.</t>
+  </si>
+  <si>
+    <t>Oenothera rosea L'HÃ©r.</t>
+  </si>
+  <si>
+    <t>Galatella pannonica (Jacq.) Galasso, Bartolucci &amp; Ardenghi subsp. tripolium (L.) Galasso, Bartolucci &amp; Ardenghi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -388,6 +421,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -440,7 +479,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -455,6 +494,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -737,17 +779,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="74.109375" customWidth="1"/>
-    <col min="2" max="2" width="50.6640625" customWidth="1"/>
+    <col min="1" max="1" width="74.08984375" customWidth="1"/>
+    <col min="2" max="2" width="52.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>109</v>
       </c>
@@ -755,7 +797,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -763,7 +805,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -771,7 +813,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -779,7 +821,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>46</v>
       </c>
@@ -787,7 +829,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>56</v>
       </c>
@@ -795,7 +837,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -803,7 +845,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -811,7 +853,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>48</v>
       </c>
@@ -819,7 +861,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
@@ -827,7 +869,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
@@ -835,7 +877,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
         <v>0</v>
       </c>
@@ -843,7 +885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>57</v>
       </c>
@@ -851,7 +893,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
@@ -859,7 +901,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>58</v>
       </c>
@@ -867,7 +909,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
         <v>59</v>
       </c>
@@ -875,7 +917,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
         <v>60</v>
       </c>
@@ -883,7 +925,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
         <v>38</v>
       </c>
@@ -891,7 +933,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
@@ -899,15 +941,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
         <v>39</v>
       </c>
@@ -915,7 +957,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="3" t="s">
         <v>40</v>
       </c>
@@ -923,7 +965,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="3" t="s">
         <v>61</v>
       </c>
@@ -931,7 +973,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
         <v>13</v>
       </c>
@@ -939,7 +981,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="3" t="s">
         <v>20</v>
       </c>
@@ -947,7 +989,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="3" t="s">
         <v>21</v>
       </c>
@@ -955,7 +997,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="3" t="s">
         <v>2</v>
       </c>
@@ -963,7 +1005,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="3" t="s">
         <v>14</v>
       </c>
@@ -971,7 +1013,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="3" t="s">
         <v>9</v>
       </c>
@@ -979,7 +1021,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="54" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="3" t="s">
         <v>103</v>
       </c>
@@ -987,7 +1029,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3" t="s">
         <v>15</v>
       </c>
@@ -995,7 +1037,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="3" t="s">
         <v>33</v>
       </c>
@@ -1003,7 +1045,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="3" t="s">
         <v>62</v>
       </c>
@@ -1011,7 +1053,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3" t="s">
         <v>44</v>
       </c>
@@ -1019,7 +1061,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3" t="s">
         <v>36</v>
       </c>
@@ -1027,15 +1069,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="80.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3" t="s">
         <v>55</v>
       </c>
@@ -1043,7 +1085,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="3" t="s">
         <v>64</v>
       </c>
@@ -1051,15 +1093,15 @@
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="3" t="s">
         <v>37</v>
       </c>
@@ -1067,7 +1109,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="3" t="s">
         <v>65</v>
       </c>
@@ -1075,7 +1117,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="3" t="s">
         <v>93</v>
       </c>
@@ -1083,15 +1125,15 @@
         <v>93</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1099,7 +1141,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="3" t="s">
         <v>66</v>
       </c>
@@ -1107,7 +1149,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="3" t="s">
         <v>34</v>
       </c>
@@ -1115,7 +1157,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="3" t="s">
         <v>16</v>
       </c>
@@ -1123,7 +1165,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="3" t="s">
         <v>4</v>
       </c>
@@ -1131,7 +1173,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="3" t="s">
         <v>22</v>
       </c>
@@ -1139,7 +1181,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="3" t="s">
         <v>67</v>
       </c>
@@ -1147,23 +1189,23 @@
         <v>67</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="54" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="3" t="s">
         <v>68</v>
       </c>
@@ -1171,7 +1213,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="3" t="s">
         <v>80</v>
       </c>
@@ -1179,7 +1221,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="3" t="s">
         <v>81</v>
       </c>
@@ -1187,7 +1229,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="3" t="s">
         <v>94</v>
       </c>
@@ -1195,7 +1237,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="3" t="s">
         <v>95</v>
       </c>
@@ -1203,7 +1245,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="3" t="s">
         <v>82</v>
       </c>
@@ -1211,15 +1253,15 @@
         <v>82</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="3" t="s">
         <v>84</v>
       </c>
@@ -1227,7 +1269,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="3" t="s">
         <v>96</v>
       </c>
@@ -1235,7 +1277,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="3" t="s">
         <v>85</v>
       </c>
@@ -1243,7 +1285,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="3" t="s">
         <v>86</v>
       </c>
@@ -1251,31 +1293,31 @@
         <v>86</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="3" t="s">
         <v>97</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="3" t="s">
         <v>88</v>
       </c>
@@ -1283,7 +1325,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="3" t="s">
         <v>98</v>
       </c>
@@ -1291,15 +1333,15 @@
         <v>98</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="3" t="s">
         <v>99</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="3" t="s">
         <v>18</v>
       </c>
@@ -1307,7 +1349,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="3" t="s">
         <v>89</v>
       </c>
@@ -1315,15 +1357,15 @@
         <v>89</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="3" t="s">
         <v>90</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="3" t="s">
         <v>91</v>
       </c>
@@ -1331,7 +1373,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="3" t="s">
         <v>92</v>
       </c>
@@ -1339,7 +1381,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="54" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="3" t="s">
         <v>69</v>
       </c>
@@ -1347,7 +1389,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="3" t="s">
         <v>70</v>
       </c>
@@ -1355,7 +1397,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="3" t="s">
         <v>71</v>
       </c>
@@ -1363,7 +1405,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="3" t="s">
         <v>23</v>
       </c>
@@ -1371,7 +1413,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="3" t="s">
         <v>27</v>
       </c>
@@ -1379,7 +1421,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="3" t="s">
         <v>28</v>
       </c>
@@ -1387,7 +1429,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="3" t="s">
         <v>45</v>
       </c>
@@ -1395,15 +1437,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B82" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B82" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="3" t="s">
         <v>63</v>
       </c>
@@ -1411,7 +1453,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="3" t="s">
         <v>26</v>
       </c>
@@ -1419,7 +1461,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="3" t="s">
         <v>101</v>
       </c>
@@ -1427,7 +1469,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="3" t="s">
         <v>72</v>
       </c>
@@ -1435,7 +1477,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" s="3" t="s">
         <v>73</v>
       </c>
@@ -1443,15 +1485,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89" s="3" t="s">
         <v>29</v>
       </c>
@@ -1459,7 +1501,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="3" t="s">
         <v>105</v>
       </c>
@@ -1467,7 +1509,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="3" t="s">
         <v>53</v>
       </c>
@@ -1475,7 +1517,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92" s="3" t="s">
         <v>35</v>
       </c>
@@ -1483,7 +1525,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="3" t="s">
         <v>24</v>
       </c>
@@ -1491,7 +1533,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A94" s="3" t="s">
         <v>52</v>
       </c>
@@ -1499,7 +1541,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A95" s="3" t="s">
         <v>43</v>
       </c>
@@ -1507,7 +1549,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="3" t="s">
         <v>54</v>
       </c>
@@ -1515,7 +1557,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A97" s="3" t="s">
         <v>47</v>
       </c>
@@ -1523,15 +1565,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B98" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B98" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="3" t="s">
         <v>74</v>
       </c>
@@ -1539,7 +1581,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A100" s="3" t="s">
         <v>75</v>
       </c>
@@ -1547,7 +1589,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A101" s="3" t="s">
         <v>76</v>
       </c>
@@ -1555,7 +1597,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A102" s="3" t="s">
         <v>77</v>
       </c>
@@ -1563,7 +1605,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A103" s="3" t="s">
         <v>78</v>
       </c>
@@ -1571,7 +1613,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A104" s="3" t="s">
         <v>49</v>
       </c>
@@ -1579,7 +1621,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A105" s="3" t="s">
         <v>31</v>
       </c>
@@ -1587,7 +1629,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A106" s="3" t="s">
         <v>32</v>
       </c>
@@ -1595,7 +1637,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A107" s="3" t="s">
         <v>51</v>
       </c>
@@ -1603,7 +1645,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A108" s="3" t="s">
         <v>1</v>
       </c>
@@ -1611,7 +1653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A109" s="3" t="s">
         <v>107</v>
       </c>
